--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdace82c1c5d2c62/Documents/Devopslab/Harryskitchen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{3F3E6D8C-B204-408A-B5B8-D2AF041A347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B5EBC5-86FF-4A1A-805D-15E2A8FB74CE}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{3F3E6D8C-B204-408A-B5B8-D2AF041A347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBCF02BD-F954-4D10-839F-9EBFD2AAB8D2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98320B7E-2AAB-40F2-97CB-4E0A1A66ED7F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Walmart</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609ED9DE-9271-48BC-8ABA-54AD7C18379D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -457,7 +460,7 @@
       </c>
       <c r="F1">
         <f>SUM(C:C)</f>
-        <v>525.37</v>
+        <v>600.37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -557,6 +560,17 @@
       </c>
       <c r="C10">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
